--- a/Assets/DataTables/Character/Monster/DeerStag/CT_DeerStag_Attributes.xlsx
+++ b/Assets/DataTables/Character/Monster/DeerStag/CT_DeerStag_Attributes.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\2.Unreal\1.Projects\DreamWorld\Assets\DataTables\Character\Monster\DeerStag\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3096F331-8560-49BF-9046-63764E006A0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="30720" windowHeight="15300"/>
   </bookViews>
   <sheets>
     <sheet name="DT_Slime_Attributes" sheetId="1" r:id="rId1"/>
@@ -20,9 +14,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -30,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>---</t>
   </si>
@@ -46,17 +43,34 @@
   <si>
     <t>MaxStamina</t>
   </si>
+  <si>
+    <t>AttackForce</t>
+  </si>
+  <si>
+    <t>AttackSpeed</t>
+  </si>
+  <si>
+    <t>PhysicsRes</t>
+  </si>
+  <si>
+    <t>MagicRes</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -64,7 +78,29 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -72,16 +108,22 @@
       <sz val="18"/>
       <color theme="3"/>
       <name val="等线 Light"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="major"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -90,7 +132,6 @@
       <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -99,31 +140,6 @@
       <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C5700"/>
-      <name val="等线"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -131,7 +147,6 @@
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="等线"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -140,7 +155,6 @@
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="等线"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -149,15 +163,6 @@
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -166,24 +171,13 @@
       <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -192,7 +186,27 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -200,14 +214,6 @@
       <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -221,175 +227,188 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -399,6 +418,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -424,7 +458,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.39997558519241921"/>
+        <color theme="4" tint="0.399975585192419"/>
       </bottom>
       <diagonal/>
     </border>
@@ -459,15 +493,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -483,17 +508,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -509,191 +528,218 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="42">
-    <cellStyle name="20% - 着色 1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - 着色 2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - 着色 3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - 着色 4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - 着色 5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - 着色 6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="标题" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="标题 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="标题 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="标题 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="标题 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="差" xfId="7" builtinId="27" customBuiltin="1"/>
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="好" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="汇总" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="计算" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="检查单元格" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="解释性文本" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="警告文本" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="链接单元格" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="适中" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="输出" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="输入" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="着色 1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="着色 2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="着色 3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="着色 4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="着色 5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="着色 6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="注释" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -742,7 +788,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -775,26 +821,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -827,23 +856,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -985,26 +997,28 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AY5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:CW9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E5" activeCellId="1" sqref="B4 E5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="BW6" sqref="$A6:$XFD9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
+  <cols>
+    <col min="51" max="78" width="12.8888888888889"/>
+    <col min="79" max="79" width="11.7777777777778"/>
+    <col min="80" max="96" width="12.8888888888889"/>
+    <col min="97" max="97" width="11.7777777777778"/>
+    <col min="98" max="101" width="12.8888888888889"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:101">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1158,8 +1172,158 @@
       <c r="AY1">
         <v>50</v>
       </c>
+      <c r="AZ1">
+        <v>51</v>
+      </c>
+      <c r="BA1">
+        <v>52</v>
+      </c>
+      <c r="BB1">
+        <v>53</v>
+      </c>
+      <c r="BC1">
+        <v>54</v>
+      </c>
+      <c r="BD1">
+        <v>55</v>
+      </c>
+      <c r="BE1">
+        <v>56</v>
+      </c>
+      <c r="BF1">
+        <v>57</v>
+      </c>
+      <c r="BG1">
+        <v>58</v>
+      </c>
+      <c r="BH1">
+        <v>59</v>
+      </c>
+      <c r="BI1">
+        <v>60</v>
+      </c>
+      <c r="BJ1">
+        <v>61</v>
+      </c>
+      <c r="BK1">
+        <v>62</v>
+      </c>
+      <c r="BL1">
+        <v>63</v>
+      </c>
+      <c r="BM1">
+        <v>64</v>
+      </c>
+      <c r="BN1">
+        <v>65</v>
+      </c>
+      <c r="BO1">
+        <v>66</v>
+      </c>
+      <c r="BP1">
+        <v>67</v>
+      </c>
+      <c r="BQ1">
+        <v>68</v>
+      </c>
+      <c r="BR1">
+        <v>69</v>
+      </c>
+      <c r="BS1">
+        <v>70</v>
+      </c>
+      <c r="BT1">
+        <v>71</v>
+      </c>
+      <c r="BU1">
+        <v>72</v>
+      </c>
+      <c r="BV1">
+        <v>73</v>
+      </c>
+      <c r="BW1">
+        <v>74</v>
+      </c>
+      <c r="BX1">
+        <v>75</v>
+      </c>
+      <c r="BY1">
+        <v>76</v>
+      </c>
+      <c r="BZ1">
+        <v>77</v>
+      </c>
+      <c r="CA1">
+        <v>78</v>
+      </c>
+      <c r="CB1">
+        <v>79</v>
+      </c>
+      <c r="CC1">
+        <v>80</v>
+      </c>
+      <c r="CD1">
+        <v>81</v>
+      </c>
+      <c r="CE1">
+        <v>82</v>
+      </c>
+      <c r="CF1">
+        <v>83</v>
+      </c>
+      <c r="CG1">
+        <v>84</v>
+      </c>
+      <c r="CH1">
+        <v>85</v>
+      </c>
+      <c r="CI1">
+        <v>86</v>
+      </c>
+      <c r="CJ1">
+        <v>87</v>
+      </c>
+      <c r="CK1">
+        <v>88</v>
+      </c>
+      <c r="CL1">
+        <v>89</v>
+      </c>
+      <c r="CM1">
+        <v>90</v>
+      </c>
+      <c r="CN1">
+        <v>91</v>
+      </c>
+      <c r="CO1">
+        <v>92</v>
+      </c>
+      <c r="CP1">
+        <v>93</v>
+      </c>
+      <c r="CQ1">
+        <v>94</v>
+      </c>
+      <c r="CR1">
+        <v>95</v>
+      </c>
+      <c r="CS1">
+        <v>96</v>
+      </c>
+      <c r="CT1">
+        <v>97</v>
+      </c>
+      <c r="CU1">
+        <v>98</v>
+      </c>
+      <c r="CV1">
+        <v>99</v>
+      </c>
+      <c r="CW1">
+        <v>100</v>
+      </c>
     </row>
-    <row r="2" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:101">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1362,8 +1526,208 @@
         <f t="shared" si="0"/>
         <v>63750</v>
       </c>
+      <c r="AZ2">
+        <f t="shared" ref="AZ2:CE2" si="1">AY2+AZ1*50</f>
+        <v>66300</v>
+      </c>
+      <c r="BA2">
+        <f t="shared" si="1"/>
+        <v>68900</v>
+      </c>
+      <c r="BB2">
+        <f t="shared" si="1"/>
+        <v>71550</v>
+      </c>
+      <c r="BC2">
+        <f t="shared" si="1"/>
+        <v>74250</v>
+      </c>
+      <c r="BD2">
+        <f t="shared" si="1"/>
+        <v>77000</v>
+      </c>
+      <c r="BE2">
+        <f t="shared" si="1"/>
+        <v>79800</v>
+      </c>
+      <c r="BF2">
+        <f t="shared" si="1"/>
+        <v>82650</v>
+      </c>
+      <c r="BG2">
+        <f t="shared" si="1"/>
+        <v>85550</v>
+      </c>
+      <c r="BH2">
+        <f t="shared" si="1"/>
+        <v>88500</v>
+      </c>
+      <c r="BI2">
+        <f t="shared" si="1"/>
+        <v>91500</v>
+      </c>
+      <c r="BJ2">
+        <f t="shared" si="1"/>
+        <v>94550</v>
+      </c>
+      <c r="BK2">
+        <f t="shared" si="1"/>
+        <v>97650</v>
+      </c>
+      <c r="BL2">
+        <f t="shared" si="1"/>
+        <v>100800</v>
+      </c>
+      <c r="BM2">
+        <f t="shared" si="1"/>
+        <v>104000</v>
+      </c>
+      <c r="BN2">
+        <f t="shared" si="1"/>
+        <v>107250</v>
+      </c>
+      <c r="BO2">
+        <f t="shared" si="1"/>
+        <v>110550</v>
+      </c>
+      <c r="BP2">
+        <f t="shared" si="1"/>
+        <v>113900</v>
+      </c>
+      <c r="BQ2">
+        <f t="shared" si="1"/>
+        <v>117300</v>
+      </c>
+      <c r="BR2">
+        <f t="shared" si="1"/>
+        <v>120750</v>
+      </c>
+      <c r="BS2">
+        <f t="shared" si="1"/>
+        <v>124250</v>
+      </c>
+      <c r="BT2">
+        <f t="shared" si="1"/>
+        <v>127800</v>
+      </c>
+      <c r="BU2">
+        <f t="shared" si="1"/>
+        <v>131400</v>
+      </c>
+      <c r="BV2">
+        <f t="shared" si="1"/>
+        <v>135050</v>
+      </c>
+      <c r="BW2">
+        <f t="shared" si="1"/>
+        <v>138750</v>
+      </c>
+      <c r="BX2">
+        <f t="shared" si="1"/>
+        <v>142500</v>
+      </c>
+      <c r="BY2">
+        <f t="shared" si="1"/>
+        <v>146300</v>
+      </c>
+      <c r="BZ2">
+        <f t="shared" si="1"/>
+        <v>150150</v>
+      </c>
+      <c r="CA2">
+        <f t="shared" si="1"/>
+        <v>154050</v>
+      </c>
+      <c r="CB2">
+        <f t="shared" si="1"/>
+        <v>158000</v>
+      </c>
+      <c r="CC2">
+        <f t="shared" si="1"/>
+        <v>162000</v>
+      </c>
+      <c r="CD2">
+        <f t="shared" si="1"/>
+        <v>166050</v>
+      </c>
+      <c r="CE2">
+        <f t="shared" si="1"/>
+        <v>170150</v>
+      </c>
+      <c r="CF2">
+        <f t="shared" ref="CF2:CW2" si="2">CE2+CF1*50</f>
+        <v>174300</v>
+      </c>
+      <c r="CG2">
+        <f t="shared" si="2"/>
+        <v>178500</v>
+      </c>
+      <c r="CH2">
+        <f t="shared" si="2"/>
+        <v>182750</v>
+      </c>
+      <c r="CI2">
+        <f t="shared" si="2"/>
+        <v>187050</v>
+      </c>
+      <c r="CJ2">
+        <f t="shared" si="2"/>
+        <v>191400</v>
+      </c>
+      <c r="CK2">
+        <f t="shared" si="2"/>
+        <v>195800</v>
+      </c>
+      <c r="CL2">
+        <f t="shared" si="2"/>
+        <v>200250</v>
+      </c>
+      <c r="CM2">
+        <f t="shared" si="2"/>
+        <v>204750</v>
+      </c>
+      <c r="CN2">
+        <f t="shared" si="2"/>
+        <v>209300</v>
+      </c>
+      <c r="CO2">
+        <f t="shared" si="2"/>
+        <v>213900</v>
+      </c>
+      <c r="CP2">
+        <f t="shared" si="2"/>
+        <v>218550</v>
+      </c>
+      <c r="CQ2">
+        <f t="shared" si="2"/>
+        <v>223250</v>
+      </c>
+      <c r="CR2">
+        <f t="shared" si="2"/>
+        <v>228000</v>
+      </c>
+      <c r="CS2">
+        <f t="shared" si="2"/>
+        <v>232800</v>
+      </c>
+      <c r="CT2">
+        <f t="shared" si="2"/>
+        <v>237650</v>
+      </c>
+      <c r="CU2">
+        <f t="shared" si="2"/>
+        <v>242550</v>
+      </c>
+      <c r="CV2">
+        <f t="shared" si="2"/>
+        <v>247500</v>
+      </c>
+      <c r="CW2">
+        <f t="shared" si="2"/>
+        <v>252500</v>
+      </c>
     </row>
-    <row r="3" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:101">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1375,199 +1739,399 @@
         <v>125</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:AY3" si="1">C3+5</f>
+        <f t="shared" ref="D3:AY3" si="3">C3+5</f>
         <v>130</v>
       </c>
       <c r="E3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>135</v>
       </c>
       <c r="F3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>140</v>
       </c>
       <c r="G3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>145</v>
       </c>
       <c r="H3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>150</v>
       </c>
       <c r="I3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>155</v>
       </c>
       <c r="J3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>160</v>
       </c>
       <c r="K3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>165</v>
       </c>
       <c r="L3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>170</v>
       </c>
       <c r="M3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>175</v>
       </c>
       <c r="N3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>180</v>
       </c>
       <c r="O3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>185</v>
       </c>
       <c r="P3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>190</v>
       </c>
       <c r="Q3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>195</v>
       </c>
       <c r="R3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>200</v>
       </c>
       <c r="S3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>205</v>
       </c>
       <c r="T3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>210</v>
       </c>
       <c r="U3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>215</v>
       </c>
       <c r="V3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>220</v>
       </c>
       <c r="W3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>225</v>
       </c>
       <c r="X3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>230</v>
       </c>
       <c r="Y3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>235</v>
       </c>
       <c r="Z3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>240</v>
       </c>
       <c r="AA3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>245</v>
       </c>
       <c r="AB3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>250</v>
       </c>
       <c r="AC3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>255</v>
       </c>
       <c r="AD3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>260</v>
       </c>
       <c r="AE3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>265</v>
       </c>
       <c r="AF3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>270</v>
       </c>
       <c r="AG3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>275</v>
       </c>
       <c r="AH3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>280</v>
       </c>
       <c r="AI3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>285</v>
       </c>
       <c r="AJ3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>290</v>
       </c>
       <c r="AK3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>295</v>
       </c>
       <c r="AL3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>300</v>
       </c>
       <c r="AM3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>305</v>
       </c>
       <c r="AN3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>310</v>
       </c>
       <c r="AO3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>315</v>
       </c>
       <c r="AP3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>320</v>
       </c>
       <c r="AQ3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>325</v>
       </c>
       <c r="AR3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>330</v>
       </c>
       <c r="AS3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>335</v>
       </c>
       <c r="AT3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>340</v>
       </c>
       <c r="AU3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>345</v>
       </c>
       <c r="AV3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>350</v>
       </c>
       <c r="AW3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>355</v>
       </c>
       <c r="AX3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>360</v>
       </c>
       <c r="AY3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>365</v>
       </c>
+      <c r="AZ3">
+        <f t="shared" ref="AZ3:CE3" si="4">AY3+5</f>
+        <v>370</v>
+      </c>
+      <c r="BA3">
+        <f t="shared" si="4"/>
+        <v>375</v>
+      </c>
+      <c r="BB3">
+        <f t="shared" si="4"/>
+        <v>380</v>
+      </c>
+      <c r="BC3">
+        <f t="shared" si="4"/>
+        <v>385</v>
+      </c>
+      <c r="BD3">
+        <f t="shared" si="4"/>
+        <v>390</v>
+      </c>
+      <c r="BE3">
+        <f t="shared" si="4"/>
+        <v>395</v>
+      </c>
+      <c r="BF3">
+        <f t="shared" si="4"/>
+        <v>400</v>
+      </c>
+      <c r="BG3">
+        <f t="shared" si="4"/>
+        <v>405</v>
+      </c>
+      <c r="BH3">
+        <f t="shared" si="4"/>
+        <v>410</v>
+      </c>
+      <c r="BI3">
+        <f t="shared" si="4"/>
+        <v>415</v>
+      </c>
+      <c r="BJ3">
+        <f t="shared" si="4"/>
+        <v>420</v>
+      </c>
+      <c r="BK3">
+        <f t="shared" si="4"/>
+        <v>425</v>
+      </c>
+      <c r="BL3">
+        <f t="shared" si="4"/>
+        <v>430</v>
+      </c>
+      <c r="BM3">
+        <f t="shared" si="4"/>
+        <v>435</v>
+      </c>
+      <c r="BN3">
+        <f t="shared" si="4"/>
+        <v>440</v>
+      </c>
+      <c r="BO3">
+        <f t="shared" si="4"/>
+        <v>445</v>
+      </c>
+      <c r="BP3">
+        <f t="shared" si="4"/>
+        <v>450</v>
+      </c>
+      <c r="BQ3">
+        <f t="shared" si="4"/>
+        <v>455</v>
+      </c>
+      <c r="BR3">
+        <f t="shared" si="4"/>
+        <v>460</v>
+      </c>
+      <c r="BS3">
+        <f t="shared" si="4"/>
+        <v>465</v>
+      </c>
+      <c r="BT3">
+        <f t="shared" si="4"/>
+        <v>470</v>
+      </c>
+      <c r="BU3">
+        <f t="shared" si="4"/>
+        <v>475</v>
+      </c>
+      <c r="BV3">
+        <f t="shared" si="4"/>
+        <v>480</v>
+      </c>
+      <c r="BW3">
+        <f t="shared" si="4"/>
+        <v>485</v>
+      </c>
+      <c r="BX3">
+        <f t="shared" si="4"/>
+        <v>490</v>
+      </c>
+      <c r="BY3">
+        <f t="shared" si="4"/>
+        <v>495</v>
+      </c>
+      <c r="BZ3">
+        <f t="shared" si="4"/>
+        <v>500</v>
+      </c>
+      <c r="CA3">
+        <f t="shared" si="4"/>
+        <v>505</v>
+      </c>
+      <c r="CB3">
+        <f t="shared" si="4"/>
+        <v>510</v>
+      </c>
+      <c r="CC3">
+        <f t="shared" si="4"/>
+        <v>515</v>
+      </c>
+      <c r="CD3">
+        <f t="shared" si="4"/>
+        <v>520</v>
+      </c>
+      <c r="CE3">
+        <f t="shared" si="4"/>
+        <v>525</v>
+      </c>
+      <c r="CF3">
+        <f t="shared" ref="CF3:CW3" si="5">CE3+5</f>
+        <v>530</v>
+      </c>
+      <c r="CG3">
+        <f t="shared" si="5"/>
+        <v>535</v>
+      </c>
+      <c r="CH3">
+        <f t="shared" si="5"/>
+        <v>540</v>
+      </c>
+      <c r="CI3">
+        <f t="shared" si="5"/>
+        <v>545</v>
+      </c>
+      <c r="CJ3">
+        <f t="shared" si="5"/>
+        <v>550</v>
+      </c>
+      <c r="CK3">
+        <f t="shared" si="5"/>
+        <v>555</v>
+      </c>
+      <c r="CL3">
+        <f t="shared" si="5"/>
+        <v>560</v>
+      </c>
+      <c r="CM3">
+        <f t="shared" si="5"/>
+        <v>565</v>
+      </c>
+      <c r="CN3">
+        <f t="shared" si="5"/>
+        <v>570</v>
+      </c>
+      <c r="CO3">
+        <f t="shared" si="5"/>
+        <v>575</v>
+      </c>
+      <c r="CP3">
+        <f t="shared" si="5"/>
+        <v>580</v>
+      </c>
+      <c r="CQ3">
+        <f t="shared" si="5"/>
+        <v>585</v>
+      </c>
+      <c r="CR3">
+        <f t="shared" si="5"/>
+        <v>590</v>
+      </c>
+      <c r="CS3">
+        <f t="shared" si="5"/>
+        <v>595</v>
+      </c>
+      <c r="CT3">
+        <f t="shared" si="5"/>
+        <v>600</v>
+      </c>
+      <c r="CU3">
+        <f t="shared" si="5"/>
+        <v>605</v>
+      </c>
+      <c r="CV3">
+        <f t="shared" si="5"/>
+        <v>610</v>
+      </c>
+      <c r="CW3">
+        <f t="shared" si="5"/>
+        <v>615</v>
+      </c>
     </row>
-    <row r="4" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:101">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1579,199 +2143,399 @@
         <v>60</v>
       </c>
       <c r="D4">
-        <f t="shared" ref="D4:AY4" si="2">C4+20/D1</f>
-        <v>66.666666666666671</v>
+        <f t="shared" ref="D4:AY4" si="6">C4+20/D1</f>
+        <v>66.6666666666667</v>
       </c>
       <c r="E4">
-        <f t="shared" si="2"/>
-        <v>71.666666666666671</v>
+        <f t="shared" si="6"/>
+        <v>71.6666666666667</v>
       </c>
       <c r="F4">
-        <f t="shared" si="2"/>
-        <v>75.666666666666671</v>
+        <f t="shared" si="6"/>
+        <v>75.6666666666667</v>
       </c>
       <c r="G4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>79</v>
       </c>
       <c r="H4">
-        <f t="shared" si="2"/>
-        <v>81.857142857142861</v>
+        <f t="shared" si="6"/>
+        <v>81.8571428571429</v>
       </c>
       <c r="I4">
-        <f t="shared" si="2"/>
-        <v>84.357142857142861</v>
+        <f t="shared" si="6"/>
+        <v>84.3571428571429</v>
       </c>
       <c r="J4">
-        <f t="shared" si="2"/>
-        <v>86.57936507936509</v>
+        <f t="shared" si="6"/>
+        <v>86.5793650793651</v>
       </c>
       <c r="K4">
-        <f t="shared" si="2"/>
-        <v>88.57936507936509</v>
+        <f t="shared" si="6"/>
+        <v>88.5793650793651</v>
       </c>
       <c r="L4">
-        <f t="shared" si="2"/>
-        <v>90.397546897546903</v>
+        <f t="shared" si="6"/>
+        <v>90.3975468975469</v>
       </c>
       <c r="M4">
-        <f t="shared" si="2"/>
-        <v>92.064213564213574</v>
+        <f t="shared" si="6"/>
+        <v>92.0642135642136</v>
       </c>
       <c r="N4">
-        <f t="shared" si="2"/>
-        <v>93.602675102675107</v>
+        <f t="shared" si="6"/>
+        <v>93.6026751026751</v>
       </c>
       <c r="O4">
-        <f t="shared" si="2"/>
-        <v>95.031246531246538</v>
+        <f t="shared" si="6"/>
+        <v>95.0312465312465</v>
       </c>
       <c r="P4">
-        <f t="shared" si="2"/>
-        <v>96.364579864579866</v>
+        <f t="shared" si="6"/>
+        <v>96.3645798645799</v>
       </c>
       <c r="Q4">
-        <f t="shared" si="2"/>
-        <v>97.614579864579866</v>
+        <f t="shared" si="6"/>
+        <v>97.6145798645799</v>
       </c>
       <c r="R4">
-        <f t="shared" si="2"/>
-        <v>98.791050452815156</v>
+        <f t="shared" si="6"/>
+        <v>98.7910504528152</v>
       </c>
       <c r="S4">
-        <f t="shared" si="2"/>
-        <v>99.902161563926271</v>
+        <f t="shared" si="6"/>
+        <v>99.9021615639263</v>
       </c>
       <c r="T4">
-        <f t="shared" si="2"/>
-        <v>100.95479314287364</v>
+        <f t="shared" si="6"/>
+        <v>100.954793142874</v>
       </c>
       <c r="U4">
-        <f t="shared" si="2"/>
-        <v>101.95479314287364</v>
+        <f t="shared" si="6"/>
+        <v>101.954793142874</v>
       </c>
       <c r="V4">
-        <f t="shared" si="2"/>
-        <v>102.90717409525459</v>
+        <f t="shared" si="6"/>
+        <v>102.907174095255</v>
       </c>
       <c r="W4">
-        <f t="shared" si="2"/>
-        <v>103.8162650043455</v>
+        <f t="shared" si="6"/>
+        <v>103.816265004345</v>
       </c>
       <c r="X4">
-        <f t="shared" si="2"/>
-        <v>104.68583022173679</v>
+        <f t="shared" si="6"/>
+        <v>104.685830221737</v>
       </c>
       <c r="Y4">
-        <f t="shared" si="2"/>
-        <v>105.51916355507012</v>
+        <f t="shared" si="6"/>
+        <v>105.51916355507</v>
       </c>
       <c r="Z4">
-        <f t="shared" si="2"/>
-        <v>106.31916355507012</v>
+        <f t="shared" si="6"/>
+        <v>106.31916355507</v>
       </c>
       <c r="AA4">
-        <f t="shared" si="2"/>
-        <v>107.08839432430089</v>
+        <f t="shared" si="6"/>
+        <v>107.088394324301</v>
       </c>
       <c r="AB4">
-        <f t="shared" si="2"/>
-        <v>107.82913506504164</v>
+        <f t="shared" si="6"/>
+        <v>107.829135065042</v>
       </c>
       <c r="AC4">
-        <f t="shared" si="2"/>
-        <v>108.54342077932735</v>
+        <f t="shared" si="6"/>
+        <v>108.543420779327</v>
       </c>
       <c r="AD4">
-        <f t="shared" si="2"/>
-        <v>109.23307595174114</v>
+        <f t="shared" si="6"/>
+        <v>109.233075951741</v>
       </c>
       <c r="AE4">
-        <f t="shared" si="2"/>
-        <v>109.89974261840781</v>
+        <f t="shared" si="6"/>
+        <v>109.899742618408</v>
       </c>
       <c r="AF4">
-        <f t="shared" si="2"/>
-        <v>110.54490390873039</v>
+        <f t="shared" si="6"/>
+        <v>110.54490390873</v>
       </c>
       <c r="AG4">
-        <f t="shared" si="2"/>
-        <v>111.16990390873039</v>
+        <f t="shared" si="6"/>
+        <v>111.16990390873</v>
       </c>
       <c r="AH4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>111.775964514791</v>
       </c>
       <c r="AI4">
-        <f t="shared" si="2"/>
-        <v>112.36419980890865</v>
+        <f t="shared" si="6"/>
+        <v>112.364199808909</v>
       </c>
       <c r="AJ4">
-        <f t="shared" si="2"/>
-        <v>112.93562838033722</v>
+        <f t="shared" si="6"/>
+        <v>112.935628380337</v>
       </c>
       <c r="AK4">
-        <f t="shared" si="2"/>
-        <v>113.49118393589278</v>
+        <f t="shared" si="6"/>
+        <v>113.491183935893</v>
       </c>
       <c r="AL4">
-        <f t="shared" si="2"/>
-        <v>114.03172447643333</v>
+        <f t="shared" si="6"/>
+        <v>114.031724476433</v>
       </c>
       <c r="AM4">
-        <f t="shared" si="2"/>
-        <v>114.55804026590701</v>
+        <f t="shared" si="6"/>
+        <v>114.558040265907</v>
       </c>
       <c r="AN4">
-        <f t="shared" si="2"/>
-        <v>115.07086077872752</v>
+        <f t="shared" si="6"/>
+        <v>115.070860778728</v>
       </c>
       <c r="AO4">
-        <f t="shared" si="2"/>
-        <v>115.57086077872752</v>
+        <f t="shared" si="6"/>
+        <v>115.570860778728</v>
       </c>
       <c r="AP4">
-        <f t="shared" si="2"/>
-        <v>116.0586656567763</v>
+        <f t="shared" si="6"/>
+        <v>116.058665656776</v>
       </c>
       <c r="AQ4">
-        <f t="shared" si="2"/>
-        <v>116.53485613296678</v>
+        <f t="shared" si="6"/>
+        <v>116.534856132967</v>
       </c>
       <c r="AR4">
-        <f t="shared" si="2"/>
-        <v>116.99997241203654</v>
+        <f t="shared" si="6"/>
+        <v>116.999972412037</v>
       </c>
       <c r="AS4">
-        <f t="shared" si="2"/>
-        <v>117.45451786658199</v>
+        <f t="shared" si="6"/>
+        <v>117.454517866582</v>
       </c>
       <c r="AT4">
-        <f t="shared" si="2"/>
-        <v>117.89896231102644</v>
+        <f t="shared" si="6"/>
+        <v>117.898962311026</v>
       </c>
       <c r="AU4">
-        <f t="shared" si="2"/>
-        <v>118.33374491972209</v>
+        <f t="shared" si="6"/>
+        <v>118.333744919722</v>
       </c>
       <c r="AV4">
-        <f t="shared" si="2"/>
-        <v>118.7592768346157</v>
+        <f t="shared" si="6"/>
+        <v>118.759276834616</v>
       </c>
       <c r="AW4">
-        <f t="shared" si="2"/>
-        <v>119.17594350128238</v>
+        <f t="shared" si="6"/>
+        <v>119.175943501282</v>
       </c>
       <c r="AX4">
-        <f t="shared" si="2"/>
-        <v>119.5841067665885</v>
+        <f t="shared" si="6"/>
+        <v>119.584106766589</v>
       </c>
       <c r="AY4">
-        <f t="shared" si="2"/>
-        <v>119.98410676658851</v>
+        <f t="shared" si="6"/>
+        <v>119.984106766589</v>
+      </c>
+      <c r="AZ4">
+        <f t="shared" ref="AZ4:CE4" si="7">AY4+20/AZ1</f>
+        <v>120.376263629334</v>
+      </c>
+      <c r="BA4">
+        <f t="shared" si="7"/>
+        <v>120.760879013949</v>
+      </c>
+      <c r="BB4">
+        <f t="shared" si="7"/>
+        <v>121.138237504515</v>
+      </c>
+      <c r="BC4">
+        <f t="shared" si="7"/>
+        <v>121.508607874885</v>
+      </c>
+      <c r="BD4">
+        <f t="shared" si="7"/>
+        <v>121.872244238522</v>
+      </c>
+      <c r="BE4">
+        <f t="shared" si="7"/>
+        <v>122.229387095665</v>
+      </c>
+      <c r="BF4">
+        <f t="shared" si="7"/>
+        <v>122.580264288647</v>
+      </c>
+      <c r="BG4">
+        <f t="shared" si="7"/>
+        <v>122.925091874854</v>
+      </c>
+      <c r="BH4">
+        <f t="shared" si="7"/>
+        <v>123.264074925701</v>
+      </c>
+      <c r="BI4">
+        <f t="shared" si="7"/>
+        <v>123.597408259035</v>
+      </c>
+      <c r="BJ4">
+        <f t="shared" si="7"/>
+        <v>123.925277111494</v>
+      </c>
+      <c r="BK4">
+        <f t="shared" si="7"/>
+        <v>124.247857756655</v>
+      </c>
+      <c r="BL4">
+        <f t="shared" si="7"/>
+        <v>124.565318074115</v>
+      </c>
+      <c r="BM4">
+        <f t="shared" si="7"/>
+        <v>124.877818074115</v>
+      </c>
+      <c r="BN4">
+        <f t="shared" si="7"/>
+        <v>125.185510381808</v>
+      </c>
+      <c r="BO4">
+        <f t="shared" si="7"/>
+        <v>125.488540684838</v>
+      </c>
+      <c r="BP4">
+        <f t="shared" si="7"/>
+        <v>125.787048147525</v>
+      </c>
+      <c r="BQ4">
+        <f t="shared" si="7"/>
+        <v>126.081165794583</v>
+      </c>
+      <c r="BR4">
+        <f t="shared" si="7"/>
+        <v>126.371020867047</v>
+      </c>
+      <c r="BS4">
+        <f t="shared" si="7"/>
+        <v>126.656735152761</v>
+      </c>
+      <c r="BT4">
+        <f t="shared" si="7"/>
+        <v>126.938425293607</v>
+      </c>
+      <c r="BU4">
+        <f t="shared" si="7"/>
+        <v>127.216203071384</v>
+      </c>
+      <c r="BV4">
+        <f t="shared" si="7"/>
+        <v>127.490175674124</v>
+      </c>
+      <c r="BW4">
+        <f t="shared" si="7"/>
+        <v>127.760445944394</v>
+      </c>
+      <c r="BX4">
+        <f t="shared" si="7"/>
+        <v>128.027112611061</v>
+      </c>
+      <c r="BY4">
+        <f t="shared" si="7"/>
+        <v>128.290270505798</v>
+      </c>
+      <c r="BZ4">
+        <f t="shared" si="7"/>
+        <v>128.550010765538</v>
+      </c>
+      <c r="CA4">
+        <f t="shared" si="7"/>
+        <v>128.806421021948</v>
+      </c>
+      <c r="CB4">
+        <f t="shared" si="7"/>
+        <v>129.05958557891</v>
+      </c>
+      <c r="CC4">
+        <f t="shared" si="7"/>
+        <v>129.30958557891</v>
+      </c>
+      <c r="CD4">
+        <f t="shared" si="7"/>
+        <v>129.556499159157</v>
+      </c>
+      <c r="CE4">
+        <f t="shared" si="7"/>
+        <v>129.800401598182</v>
+      </c>
+      <c r="CF4">
+        <f t="shared" ref="CF4:CW4" si="8">CE4+20/CF1</f>
+        <v>130.041365453603</v>
+      </c>
+      <c r="CG4">
+        <f t="shared" si="8"/>
+        <v>130.279460691699</v>
+      </c>
+      <c r="CH4">
+        <f t="shared" si="8"/>
+        <v>130.514754809346</v>
+      </c>
+      <c r="CI4">
+        <f t="shared" si="8"/>
+        <v>130.747312948881</v>
+      </c>
+      <c r="CJ4">
+        <f t="shared" si="8"/>
+        <v>130.977198006352</v>
+      </c>
+      <c r="CK4">
+        <f t="shared" si="8"/>
+        <v>131.204470733625</v>
+      </c>
+      <c r="CL4">
+        <f t="shared" si="8"/>
+        <v>131.429189834748</v>
+      </c>
+      <c r="CM4">
+        <f t="shared" si="8"/>
+        <v>131.65141205697</v>
+      </c>
+      <c r="CN4">
+        <f t="shared" si="8"/>
+        <v>131.871192276751</v>
+      </c>
+      <c r="CO4">
+        <f t="shared" si="8"/>
+        <v>132.088583581098</v>
+      </c>
+      <c r="CP4">
+        <f t="shared" si="8"/>
+        <v>132.303637344539</v>
+      </c>
+      <c r="CQ4">
+        <f t="shared" si="8"/>
+        <v>132.516403301986</v>
+      </c>
+      <c r="CR4">
+        <f t="shared" si="8"/>
+        <v>132.726929617776</v>
+      </c>
+      <c r="CS4">
+        <f t="shared" si="8"/>
+        <v>132.935262951109</v>
+      </c>
+      <c r="CT4">
+        <f t="shared" si="8"/>
+        <v>133.141448518119</v>
+      </c>
+      <c r="CU4">
+        <f t="shared" si="8"/>
+        <v>133.345530150772</v>
+      </c>
+      <c r="CV4">
+        <f t="shared" si="8"/>
+        <v>133.547550352792</v>
+      </c>
+      <c r="CW4">
+        <f t="shared" si="8"/>
+        <v>133.747550352792</v>
       </c>
     </row>
-    <row r="5" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:101">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1783,200 +2547,2016 @@
         <v>57.15</v>
       </c>
       <c r="D5">
-        <f t="shared" ref="D5:AY5" si="3">C5+14.3/D1</f>
-        <v>61.916666666666664</v>
+        <f t="shared" ref="D5:AY5" si="9">C5+14.3/D1</f>
+        <v>61.9166666666667</v>
       </c>
       <c r="E5">
-        <f t="shared" si="3"/>
-        <v>65.49166666666666</v>
+        <f t="shared" si="9"/>
+        <v>65.4916666666667</v>
       </c>
       <c r="F5">
-        <f t="shared" si="3"/>
-        <v>68.351666666666659</v>
+        <f t="shared" si="9"/>
+        <v>68.3516666666667</v>
       </c>
       <c r="G5">
-        <f t="shared" si="3"/>
-        <v>70.734999999999999</v>
+        <f t="shared" si="9"/>
+        <v>70.735</v>
       </c>
       <c r="H5">
-        <f t="shared" si="3"/>
-        <v>72.777857142857144</v>
+        <f t="shared" si="9"/>
+        <v>72.7778571428571</v>
       </c>
       <c r="I5">
-        <f t="shared" si="3"/>
-        <v>74.565357142857138</v>
+        <f t="shared" si="9"/>
+        <v>74.5653571428571</v>
       </c>
       <c r="J5">
-        <f t="shared" si="3"/>
-        <v>76.154246031746027</v>
+        <f t="shared" si="9"/>
+        <v>76.154246031746</v>
       </c>
       <c r="K5">
-        <f t="shared" si="3"/>
-        <v>77.584246031746034</v>
+        <f t="shared" si="9"/>
+        <v>77.584246031746</v>
       </c>
       <c r="L5">
-        <f t="shared" si="3"/>
-        <v>78.884246031746031</v>
+        <f t="shared" si="9"/>
+        <v>78.884246031746</v>
       </c>
       <c r="M5">
-        <f t="shared" si="3"/>
-        <v>80.075912698412694</v>
+        <f t="shared" si="9"/>
+        <v>80.0759126984127</v>
       </c>
       <c r="N5">
-        <f t="shared" si="3"/>
-        <v>81.175912698412688</v>
+        <f t="shared" si="9"/>
+        <v>81.1759126984127</v>
       </c>
       <c r="O5">
-        <f t="shared" si="3"/>
-        <v>82.19734126984126</v>
+        <f t="shared" si="9"/>
+        <v>82.1973412698413</v>
       </c>
       <c r="P5">
-        <f t="shared" si="3"/>
-        <v>83.150674603174593</v>
+        <f t="shared" si="9"/>
+        <v>83.1506746031746</v>
       </c>
       <c r="Q5">
-        <f t="shared" si="3"/>
-        <v>84.044424603174591</v>
+        <f t="shared" si="9"/>
+        <v>84.0444246031746</v>
       </c>
       <c r="R5">
-        <f t="shared" si="3"/>
-        <v>84.885601073762828</v>
+        <f t="shared" si="9"/>
+        <v>84.8856010737628</v>
       </c>
       <c r="S5">
-        <f t="shared" si="3"/>
-        <v>85.68004551820728</v>
+        <f t="shared" si="9"/>
+        <v>85.6800455182073</v>
       </c>
       <c r="T5">
-        <f t="shared" si="3"/>
-        <v>86.432677097154652</v>
+        <f t="shared" si="9"/>
+        <v>86.4326770971547</v>
       </c>
       <c r="U5">
-        <f t="shared" si="3"/>
-        <v>87.147677097154656</v>
+        <f t="shared" si="9"/>
+        <v>87.1476770971547</v>
       </c>
       <c r="V5">
-        <f t="shared" si="3"/>
-        <v>87.828629478107032</v>
+        <f t="shared" si="9"/>
+        <v>87.828629478107</v>
       </c>
       <c r="W5">
-        <f t="shared" si="3"/>
-        <v>88.478629478107038</v>
+        <f t="shared" si="9"/>
+        <v>88.478629478107</v>
       </c>
       <c r="X5">
-        <f t="shared" si="3"/>
-        <v>89.100368608541814</v>
+        <f t="shared" si="9"/>
+        <v>89.1003686085418</v>
       </c>
       <c r="Y5">
-        <f t="shared" si="3"/>
-        <v>89.696201941875145</v>
+        <f t="shared" si="9"/>
+        <v>89.6962019418751</v>
       </c>
       <c r="Z5">
-        <f t="shared" si="3"/>
-        <v>90.268201941875148</v>
+        <f t="shared" si="9"/>
+        <v>90.2682019418751</v>
       </c>
       <c r="AA5">
-        <f t="shared" si="3"/>
-        <v>90.818201941875145</v>
+        <f t="shared" si="9"/>
+        <v>90.8182019418751</v>
       </c>
       <c r="AB5">
-        <f t="shared" si="3"/>
-        <v>91.34783157150477</v>
+        <f t="shared" si="9"/>
+        <v>91.3478315715048</v>
       </c>
       <c r="AC5">
-        <f t="shared" si="3"/>
-        <v>91.858545857219056</v>
+        <f t="shared" si="9"/>
+        <v>91.8585458572191</v>
       </c>
       <c r="AD5">
-        <f t="shared" si="3"/>
-        <v>92.351649305494917</v>
+        <f t="shared" si="9"/>
+        <v>92.3516493054949</v>
       </c>
       <c r="AE5">
-        <f t="shared" si="3"/>
-        <v>92.82831597216159</v>
+        <f t="shared" si="9"/>
+        <v>92.8283159721616</v>
       </c>
       <c r="AF5">
-        <f t="shared" si="3"/>
-        <v>93.289606294742242</v>
+        <f t="shared" si="9"/>
+        <v>93.2896062947422</v>
       </c>
       <c r="AG5">
-        <f t="shared" si="3"/>
-        <v>93.736481294742248</v>
+        <f t="shared" si="9"/>
+        <v>93.7364812947422</v>
       </c>
       <c r="AH5">
-        <f t="shared" si="3"/>
-        <v>94.169814628075585</v>
+        <f t="shared" si="9"/>
+        <v>94.1698146280756</v>
       </c>
       <c r="AI5">
-        <f t="shared" si="3"/>
-        <v>94.590402863369704</v>
+        <f t="shared" si="9"/>
+        <v>94.5904028633697</v>
       </c>
       <c r="AJ5">
-        <f>AI5+14.3/AJ1</f>
-        <v>94.998974291941138</v>
+        <f t="shared" si="9"/>
+        <v>94.9989742919411</v>
       </c>
       <c r="AK5">
-        <f t="shared" si="3"/>
-        <v>95.396196514163364</v>
+        <f t="shared" si="9"/>
+        <v>95.3961965141634</v>
       </c>
       <c r="AL5">
-        <f t="shared" si="3"/>
-        <v>95.782683000649854</v>
+        <f t="shared" si="9"/>
+        <v>95.7826830006499</v>
       </c>
       <c r="AM5">
-        <f t="shared" si="3"/>
-        <v>96.158998790123533</v>
+        <f t="shared" si="9"/>
+        <v>96.1589987901235</v>
       </c>
       <c r="AN5">
-        <f t="shared" si="3"/>
-        <v>96.525665456790193</v>
+        <f t="shared" si="9"/>
+        <v>96.5256654567902</v>
       </c>
       <c r="AO5">
-        <f t="shared" si="3"/>
-        <v>96.883165456790195</v>
+        <f t="shared" si="9"/>
+        <v>96.8831654567902</v>
       </c>
       <c r="AP5">
-        <f t="shared" si="3"/>
-        <v>97.231945944595068</v>
+        <f t="shared" si="9"/>
+        <v>97.2319459445951</v>
       </c>
       <c r="AQ5">
-        <f t="shared" si="3"/>
-        <v>97.572422135071264</v>
+        <f t="shared" si="9"/>
+        <v>97.5724221350713</v>
       </c>
       <c r="AR5">
-        <f t="shared" si="3"/>
-        <v>97.904980274606146</v>
+        <f t="shared" si="9"/>
+        <v>97.9049802746061</v>
       </c>
       <c r="AS5">
-        <f t="shared" si="3"/>
-        <v>98.229980274606149</v>
+        <f t="shared" si="9"/>
+        <v>98.2299802746061</v>
       </c>
       <c r="AT5">
-        <f t="shared" si="3"/>
-        <v>98.547758052383926</v>
+        <f t="shared" si="9"/>
+        <v>98.5477580523839</v>
       </c>
       <c r="AU5">
-        <f t="shared" si="3"/>
-        <v>98.858627617601314</v>
+        <f t="shared" si="9"/>
+        <v>98.8586276176013</v>
       </c>
       <c r="AV5">
-        <f t="shared" si="3"/>
-        <v>99.16288293675025</v>
+        <f t="shared" si="9"/>
+        <v>99.1628829367503</v>
       </c>
       <c r="AW5">
-        <f t="shared" si="3"/>
-        <v>99.460799603416916</v>
+        <f t="shared" si="9"/>
+        <v>99.4607996034169</v>
       </c>
       <c r="AX5">
-        <f t="shared" si="3"/>
-        <v>99.75263633811079</v>
+        <f t="shared" si="9"/>
+        <v>99.7526363381108</v>
       </c>
       <c r="AY5">
-        <f t="shared" si="3"/>
-        <v>100.03863633811079</v>
+        <f t="shared" si="9"/>
+        <v>100.038636338111</v>
+      </c>
+      <c r="AZ5">
+        <f t="shared" ref="AZ5:CE5" si="10">AY5+14.3/AZ1</f>
+        <v>100.319028494974</v>
+      </c>
+      <c r="BA5">
+        <f t="shared" si="10"/>
+        <v>100.594028494974</v>
+      </c>
+      <c r="BB5">
+        <f t="shared" si="10"/>
+        <v>100.863839815728</v>
+      </c>
+      <c r="BC5">
+        <f t="shared" si="10"/>
+        <v>101.128654630543</v>
+      </c>
+      <c r="BD5">
+        <f t="shared" si="10"/>
+        <v>101.388654630543</v>
+      </c>
+      <c r="BE5">
+        <f t="shared" si="10"/>
+        <v>101.6440117734</v>
+      </c>
+      <c r="BF5">
+        <f t="shared" si="10"/>
+        <v>101.894888966383</v>
+      </c>
+      <c r="BG5">
+        <f t="shared" si="10"/>
+        <v>102.141440690521</v>
+      </c>
+      <c r="BH5">
+        <f t="shared" si="10"/>
+        <v>102.383813571877</v>
+      </c>
+      <c r="BI5">
+        <f t="shared" si="10"/>
+        <v>102.62214690521</v>
+      </c>
+      <c r="BJ5">
+        <f t="shared" si="10"/>
+        <v>102.856573134718</v>
+      </c>
+      <c r="BK5">
+        <f t="shared" si="10"/>
+        <v>103.087218296008</v>
+      </c>
+      <c r="BL5">
+        <f t="shared" si="10"/>
+        <v>103.314202422993</v>
+      </c>
+      <c r="BM5">
+        <f t="shared" si="10"/>
+        <v>103.537639922993</v>
+      </c>
+      <c r="BN5">
+        <f t="shared" si="10"/>
+        <v>103.757639922993</v>
+      </c>
+      <c r="BO5">
+        <f t="shared" si="10"/>
+        <v>103.974306589659</v>
+      </c>
+      <c r="BP5">
+        <f t="shared" si="10"/>
+        <v>104.18773942548</v>
+      </c>
+      <c r="BQ5">
+        <f t="shared" si="10"/>
+        <v>104.398033543127</v>
+      </c>
+      <c r="BR5">
+        <f t="shared" si="10"/>
+        <v>104.605279919939</v>
+      </c>
+      <c r="BS5">
+        <f t="shared" si="10"/>
+        <v>104.809565634224</v>
+      </c>
+      <c r="BT5">
+        <f t="shared" si="10"/>
+        <v>105.010974084929</v>
+      </c>
+      <c r="BU5">
+        <f t="shared" si="10"/>
+        <v>105.20958519604</v>
+      </c>
+      <c r="BV5">
+        <f t="shared" si="10"/>
+        <v>105.405475606999</v>
+      </c>
+      <c r="BW5">
+        <f t="shared" si="10"/>
+        <v>105.598718850242</v>
+      </c>
+      <c r="BX5">
+        <f t="shared" si="10"/>
+        <v>105.789385516909</v>
+      </c>
+      <c r="BY5">
+        <f t="shared" si="10"/>
+        <v>105.977543411645</v>
+      </c>
+      <c r="BZ5">
+        <f t="shared" si="10"/>
+        <v>106.16325769736</v>
+      </c>
+      <c r="CA5">
+        <f t="shared" si="10"/>
+        <v>106.346591030693</v>
+      </c>
+      <c r="CB5">
+        <f t="shared" si="10"/>
+        <v>106.527603688921</v>
+      </c>
+      <c r="CC5">
+        <f t="shared" si="10"/>
+        <v>106.706353688921</v>
+      </c>
+      <c r="CD5">
+        <f t="shared" si="10"/>
+        <v>106.882896898797</v>
+      </c>
+      <c r="CE5">
+        <f t="shared" si="10"/>
+        <v>107.0572871427</v>
+      </c>
+      <c r="CF5">
+        <f t="shared" ref="CF5:CW5" si="11">CE5+14.3/CF1</f>
+        <v>107.229576299326</v>
+      </c>
+      <c r="CG5">
+        <f t="shared" si="11"/>
+        <v>107.399814394564</v>
+      </c>
+      <c r="CH5">
+        <f t="shared" si="11"/>
+        <v>107.568049688682</v>
+      </c>
+      <c r="CI5">
+        <f t="shared" si="11"/>
+        <v>107.73432875845</v>
+      </c>
+      <c r="CJ5">
+        <f t="shared" si="11"/>
+        <v>107.898696574542</v>
+      </c>
+      <c r="CK5">
+        <f t="shared" si="11"/>
+        <v>108.061196574542</v>
+      </c>
+      <c r="CL5">
+        <f t="shared" si="11"/>
+        <v>108.221870731845</v>
+      </c>
+      <c r="CM5">
+        <f t="shared" si="11"/>
+        <v>108.380759620734</v>
+      </c>
+      <c r="CN5">
+        <f t="shared" si="11"/>
+        <v>108.537902477877</v>
+      </c>
+      <c r="CO5">
+        <f t="shared" si="11"/>
+        <v>108.693337260485</v>
+      </c>
+      <c r="CP5">
+        <f t="shared" si="11"/>
+        <v>108.847100701346</v>
+      </c>
+      <c r="CQ5">
+        <f t="shared" si="11"/>
+        <v>108.99922836092</v>
+      </c>
+      <c r="CR5">
+        <f t="shared" si="11"/>
+        <v>109.14975467671</v>
+      </c>
+      <c r="CS5">
+        <f t="shared" si="11"/>
+        <v>109.298713010043</v>
+      </c>
+      <c r="CT5">
+        <f t="shared" si="11"/>
+        <v>109.446135690455</v>
+      </c>
+      <c r="CU5">
+        <f t="shared" si="11"/>
+        <v>109.592054057802</v>
+      </c>
+      <c r="CV5">
+        <f t="shared" si="11"/>
+        <v>109.736498502247</v>
+      </c>
+      <c r="CW5">
+        <f t="shared" si="11"/>
+        <v>109.879498502247</v>
+      </c>
+    </row>
+    <row r="6" spans="1:101">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
+        <v>10</v>
+      </c>
+      <c r="C6" s="1">
+        <f t="shared" ref="C6:BN6" si="12">B6+0.35</f>
+        <v>10.35</v>
+      </c>
+      <c r="D6" s="1">
+        <f t="shared" si="12"/>
+        <v>10.7</v>
+      </c>
+      <c r="E6" s="1">
+        <f t="shared" si="12"/>
+        <v>11.05</v>
+      </c>
+      <c r="F6" s="1">
+        <f t="shared" si="12"/>
+        <v>11.4</v>
+      </c>
+      <c r="G6" s="1">
+        <f t="shared" si="12"/>
+        <v>11.75</v>
+      </c>
+      <c r="H6" s="1">
+        <f t="shared" si="12"/>
+        <v>12.1</v>
+      </c>
+      <c r="I6" s="1">
+        <f t="shared" si="12"/>
+        <v>12.45</v>
+      </c>
+      <c r="J6" s="1">
+        <f t="shared" si="12"/>
+        <v>12.8</v>
+      </c>
+      <c r="K6" s="1">
+        <f t="shared" si="12"/>
+        <v>13.15</v>
+      </c>
+      <c r="L6" s="1">
+        <f t="shared" si="12"/>
+        <v>13.5</v>
+      </c>
+      <c r="M6" s="1">
+        <f t="shared" si="12"/>
+        <v>13.85</v>
+      </c>
+      <c r="N6" s="1">
+        <f t="shared" si="12"/>
+        <v>14.2</v>
+      </c>
+      <c r="O6" s="1">
+        <f t="shared" si="12"/>
+        <v>14.55</v>
+      </c>
+      <c r="P6" s="1">
+        <f t="shared" si="12"/>
+        <v>14.9</v>
+      </c>
+      <c r="Q6" s="1">
+        <f t="shared" si="12"/>
+        <v>15.25</v>
+      </c>
+      <c r="R6" s="1">
+        <f t="shared" si="12"/>
+        <v>15.6</v>
+      </c>
+      <c r="S6" s="1">
+        <f t="shared" si="12"/>
+        <v>15.95</v>
+      </c>
+      <c r="T6" s="1">
+        <f t="shared" si="12"/>
+        <v>16.3</v>
+      </c>
+      <c r="U6" s="1">
+        <f t="shared" si="12"/>
+        <v>16.65</v>
+      </c>
+      <c r="V6" s="1">
+        <f t="shared" si="12"/>
+        <v>17</v>
+      </c>
+      <c r="W6" s="1">
+        <f t="shared" si="12"/>
+        <v>17.35</v>
+      </c>
+      <c r="X6" s="1">
+        <f t="shared" si="12"/>
+        <v>17.7</v>
+      </c>
+      <c r="Y6" s="1">
+        <f t="shared" si="12"/>
+        <v>18.05</v>
+      </c>
+      <c r="Z6" s="1">
+        <f t="shared" si="12"/>
+        <v>18.4</v>
+      </c>
+      <c r="AA6" s="1">
+        <f t="shared" si="12"/>
+        <v>18.75</v>
+      </c>
+      <c r="AB6" s="1">
+        <f t="shared" si="12"/>
+        <v>19.1</v>
+      </c>
+      <c r="AC6" s="1">
+        <f t="shared" si="12"/>
+        <v>19.45</v>
+      </c>
+      <c r="AD6" s="1">
+        <f t="shared" si="12"/>
+        <v>19.8</v>
+      </c>
+      <c r="AE6" s="1">
+        <f t="shared" si="12"/>
+        <v>20.15</v>
+      </c>
+      <c r="AF6" s="1">
+        <f t="shared" si="12"/>
+        <v>20.5</v>
+      </c>
+      <c r="AG6" s="1">
+        <f t="shared" si="12"/>
+        <v>20.85</v>
+      </c>
+      <c r="AH6" s="1">
+        <f t="shared" si="12"/>
+        <v>21.2</v>
+      </c>
+      <c r="AI6" s="1">
+        <f t="shared" si="12"/>
+        <v>21.55</v>
+      </c>
+      <c r="AJ6" s="1">
+        <f t="shared" si="12"/>
+        <v>21.9</v>
+      </c>
+      <c r="AK6" s="1">
+        <f t="shared" si="12"/>
+        <v>22.25</v>
+      </c>
+      <c r="AL6" s="1">
+        <f t="shared" si="12"/>
+        <v>22.6</v>
+      </c>
+      <c r="AM6" s="1">
+        <f t="shared" si="12"/>
+        <v>22.95</v>
+      </c>
+      <c r="AN6" s="1">
+        <f t="shared" si="12"/>
+        <v>23.3</v>
+      </c>
+      <c r="AO6" s="1">
+        <f t="shared" si="12"/>
+        <v>23.65</v>
+      </c>
+      <c r="AP6" s="1">
+        <f t="shared" si="12"/>
+        <v>24</v>
+      </c>
+      <c r="AQ6" s="1">
+        <f t="shared" si="12"/>
+        <v>24.35</v>
+      </c>
+      <c r="AR6" s="1">
+        <f t="shared" si="12"/>
+        <v>24.7</v>
+      </c>
+      <c r="AS6" s="1">
+        <f t="shared" si="12"/>
+        <v>25.05</v>
+      </c>
+      <c r="AT6" s="1">
+        <f t="shared" si="12"/>
+        <v>25.4</v>
+      </c>
+      <c r="AU6" s="1">
+        <f t="shared" si="12"/>
+        <v>25.75</v>
+      </c>
+      <c r="AV6" s="1">
+        <f t="shared" si="12"/>
+        <v>26.1</v>
+      </c>
+      <c r="AW6" s="1">
+        <f t="shared" si="12"/>
+        <v>26.45</v>
+      </c>
+      <c r="AX6" s="1">
+        <f t="shared" si="12"/>
+        <v>26.8</v>
+      </c>
+      <c r="AY6" s="1">
+        <f t="shared" si="12"/>
+        <v>27.15</v>
+      </c>
+      <c r="AZ6" s="1">
+        <f t="shared" si="12"/>
+        <v>27.5</v>
+      </c>
+      <c r="BA6" s="1">
+        <f t="shared" si="12"/>
+        <v>27.85</v>
+      </c>
+      <c r="BB6" s="1">
+        <f t="shared" si="12"/>
+        <v>28.2</v>
+      </c>
+      <c r="BC6" s="1">
+        <f t="shared" si="12"/>
+        <v>28.55</v>
+      </c>
+      <c r="BD6" s="1">
+        <f t="shared" si="12"/>
+        <v>28.9</v>
+      </c>
+      <c r="BE6" s="1">
+        <f t="shared" si="12"/>
+        <v>29.25</v>
+      </c>
+      <c r="BF6" s="1">
+        <f t="shared" si="12"/>
+        <v>29.6</v>
+      </c>
+      <c r="BG6" s="1">
+        <f t="shared" si="12"/>
+        <v>29.95</v>
+      </c>
+      <c r="BH6" s="1">
+        <f t="shared" si="12"/>
+        <v>30.3000000000001</v>
+      </c>
+      <c r="BI6" s="1">
+        <f t="shared" si="12"/>
+        <v>30.6500000000001</v>
+      </c>
+      <c r="BJ6" s="1">
+        <f t="shared" si="12"/>
+        <v>31.0000000000001</v>
+      </c>
+      <c r="BK6" s="1">
+        <f t="shared" si="12"/>
+        <v>31.3500000000001</v>
+      </c>
+      <c r="BL6" s="1">
+        <f t="shared" si="12"/>
+        <v>31.7000000000001</v>
+      </c>
+      <c r="BM6" s="1">
+        <f t="shared" si="12"/>
+        <v>32.0500000000001</v>
+      </c>
+      <c r="BN6" s="1">
+        <f t="shared" si="12"/>
+        <v>32.4000000000001</v>
+      </c>
+      <c r="BO6" s="1">
+        <f t="shared" ref="BO6:CW6" si="13">BN6+0.35</f>
+        <v>32.7500000000001</v>
+      </c>
+      <c r="BP6" s="1">
+        <f t="shared" si="13"/>
+        <v>33.1000000000001</v>
+      </c>
+      <c r="BQ6" s="1">
+        <f t="shared" si="13"/>
+        <v>33.4500000000001</v>
+      </c>
+      <c r="BR6" s="1">
+        <f t="shared" si="13"/>
+        <v>33.8000000000001</v>
+      </c>
+      <c r="BS6" s="1">
+        <f t="shared" si="13"/>
+        <v>34.1500000000001</v>
+      </c>
+      <c r="BT6" s="1">
+        <f t="shared" si="13"/>
+        <v>34.5000000000001</v>
+      </c>
+      <c r="BU6" s="1">
+        <f t="shared" si="13"/>
+        <v>34.8500000000001</v>
+      </c>
+      <c r="BV6" s="1">
+        <f t="shared" si="13"/>
+        <v>35.2000000000001</v>
+      </c>
+      <c r="BW6" s="1">
+        <f t="shared" si="13"/>
+        <v>35.5500000000001</v>
+      </c>
+      <c r="BX6" s="1">
+        <f t="shared" si="13"/>
+        <v>35.9000000000001</v>
+      </c>
+      <c r="BY6" s="1">
+        <f t="shared" si="13"/>
+        <v>36.2500000000001</v>
+      </c>
+      <c r="BZ6" s="1">
+        <f t="shared" si="13"/>
+        <v>36.6000000000001</v>
+      </c>
+      <c r="CA6" s="1">
+        <f t="shared" si="13"/>
+        <v>36.9500000000001</v>
+      </c>
+      <c r="CB6" s="1">
+        <f t="shared" si="13"/>
+        <v>37.3000000000001</v>
+      </c>
+      <c r="CC6" s="1">
+        <f t="shared" si="13"/>
+        <v>37.6500000000001</v>
+      </c>
+      <c r="CD6" s="1">
+        <f t="shared" si="13"/>
+        <v>38.0000000000001</v>
+      </c>
+      <c r="CE6" s="1">
+        <f t="shared" si="13"/>
+        <v>38.3500000000001</v>
+      </c>
+      <c r="CF6" s="1">
+        <f t="shared" si="13"/>
+        <v>38.7000000000001</v>
+      </c>
+      <c r="CG6" s="1">
+        <f t="shared" si="13"/>
+        <v>39.0500000000001</v>
+      </c>
+      <c r="CH6" s="1">
+        <f t="shared" si="13"/>
+        <v>39.4000000000001</v>
+      </c>
+      <c r="CI6" s="1">
+        <f t="shared" si="13"/>
+        <v>39.7500000000001</v>
+      </c>
+      <c r="CJ6" s="1">
+        <f t="shared" si="13"/>
+        <v>40.1000000000001</v>
+      </c>
+      <c r="CK6" s="1">
+        <f t="shared" si="13"/>
+        <v>40.4500000000001</v>
+      </c>
+      <c r="CL6" s="1">
+        <f t="shared" si="13"/>
+        <v>40.8000000000001</v>
+      </c>
+      <c r="CM6" s="1">
+        <f t="shared" si="13"/>
+        <v>41.1500000000001</v>
+      </c>
+      <c r="CN6" s="1">
+        <f t="shared" si="13"/>
+        <v>41.5000000000001</v>
+      </c>
+      <c r="CO6" s="1">
+        <f t="shared" si="13"/>
+        <v>41.8500000000001</v>
+      </c>
+      <c r="CP6" s="1">
+        <f t="shared" si="13"/>
+        <v>42.2000000000001</v>
+      </c>
+      <c r="CQ6" s="1">
+        <f t="shared" si="13"/>
+        <v>42.5500000000001</v>
+      </c>
+      <c r="CR6" s="1">
+        <f t="shared" si="13"/>
+        <v>42.9000000000001</v>
+      </c>
+      <c r="CS6" s="1">
+        <f t="shared" si="13"/>
+        <v>43.2500000000001</v>
+      </c>
+      <c r="CT6" s="1">
+        <f t="shared" si="13"/>
+        <v>43.6000000000001</v>
+      </c>
+      <c r="CU6" s="1">
+        <f t="shared" si="13"/>
+        <v>43.9500000000001</v>
+      </c>
+      <c r="CV6" s="1">
+        <f t="shared" si="13"/>
+        <v>44.3000000000001</v>
+      </c>
+      <c r="CW6" s="1">
+        <f t="shared" si="13"/>
+        <v>44.6500000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:101">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1">
+        <f t="shared" ref="C7:BN7" si="14">B7+0.005</f>
+        <v>1.005</v>
+      </c>
+      <c r="D7" s="1">
+        <f t="shared" si="14"/>
+        <v>1.01</v>
+      </c>
+      <c r="E7" s="1">
+        <f t="shared" si="14"/>
+        <v>1.015</v>
+      </c>
+      <c r="F7" s="1">
+        <f t="shared" si="14"/>
+        <v>1.02</v>
+      </c>
+      <c r="G7" s="1">
+        <f t="shared" si="14"/>
+        <v>1.025</v>
+      </c>
+      <c r="H7" s="1">
+        <f t="shared" si="14"/>
+        <v>1.03</v>
+      </c>
+      <c r="I7" s="1">
+        <f t="shared" si="14"/>
+        <v>1.035</v>
+      </c>
+      <c r="J7" s="1">
+        <f t="shared" si="14"/>
+        <v>1.04</v>
+      </c>
+      <c r="K7" s="1">
+        <f t="shared" si="14"/>
+        <v>1.045</v>
+      </c>
+      <c r="L7" s="1">
+        <f t="shared" si="14"/>
+        <v>1.05</v>
+      </c>
+      <c r="M7" s="1">
+        <f t="shared" si="14"/>
+        <v>1.055</v>
+      </c>
+      <c r="N7" s="1">
+        <f t="shared" si="14"/>
+        <v>1.06</v>
+      </c>
+      <c r="O7" s="1">
+        <f t="shared" si="14"/>
+        <v>1.065</v>
+      </c>
+      <c r="P7" s="1">
+        <f t="shared" si="14"/>
+        <v>1.07</v>
+      </c>
+      <c r="Q7" s="1">
+        <f t="shared" si="14"/>
+        <v>1.075</v>
+      </c>
+      <c r="R7" s="1">
+        <f t="shared" si="14"/>
+        <v>1.08</v>
+      </c>
+      <c r="S7" s="1">
+        <f t="shared" si="14"/>
+        <v>1.085</v>
+      </c>
+      <c r="T7" s="1">
+        <f t="shared" si="14"/>
+        <v>1.09</v>
+      </c>
+      <c r="U7" s="1">
+        <f t="shared" si="14"/>
+        <v>1.095</v>
+      </c>
+      <c r="V7" s="1">
+        <f t="shared" si="14"/>
+        <v>1.1</v>
+      </c>
+      <c r="W7" s="1">
+        <f t="shared" si="14"/>
+        <v>1.105</v>
+      </c>
+      <c r="X7" s="1">
+        <f t="shared" si="14"/>
+        <v>1.11</v>
+      </c>
+      <c r="Y7" s="1">
+        <f t="shared" si="14"/>
+        <v>1.115</v>
+      </c>
+      <c r="Z7" s="1">
+        <f t="shared" si="14"/>
+        <v>1.12</v>
+      </c>
+      <c r="AA7" s="1">
+        <f t="shared" si="14"/>
+        <v>1.125</v>
+      </c>
+      <c r="AB7" s="1">
+        <f t="shared" si="14"/>
+        <v>1.13</v>
+      </c>
+      <c r="AC7" s="1">
+        <f t="shared" si="14"/>
+        <v>1.135</v>
+      </c>
+      <c r="AD7" s="1">
+        <f t="shared" si="14"/>
+        <v>1.14</v>
+      </c>
+      <c r="AE7" s="1">
+        <f t="shared" si="14"/>
+        <v>1.145</v>
+      </c>
+      <c r="AF7" s="1">
+        <f t="shared" si="14"/>
+        <v>1.15</v>
+      </c>
+      <c r="AG7" s="1">
+        <f t="shared" si="14"/>
+        <v>1.155</v>
+      </c>
+      <c r="AH7" s="1">
+        <f t="shared" si="14"/>
+        <v>1.16</v>
+      </c>
+      <c r="AI7" s="1">
+        <f t="shared" si="14"/>
+        <v>1.165</v>
+      </c>
+      <c r="AJ7" s="1">
+        <f t="shared" si="14"/>
+        <v>1.17</v>
+      </c>
+      <c r="AK7" s="1">
+        <f t="shared" si="14"/>
+        <v>1.175</v>
+      </c>
+      <c r="AL7" s="1">
+        <f t="shared" si="14"/>
+        <v>1.18</v>
+      </c>
+      <c r="AM7" s="1">
+        <f t="shared" si="14"/>
+        <v>1.185</v>
+      </c>
+      <c r="AN7" s="1">
+        <f t="shared" si="14"/>
+        <v>1.19</v>
+      </c>
+      <c r="AO7" s="1">
+        <f t="shared" si="14"/>
+        <v>1.195</v>
+      </c>
+      <c r="AP7" s="1">
+        <f t="shared" si="14"/>
+        <v>1.2</v>
+      </c>
+      <c r="AQ7" s="1">
+        <f t="shared" si="14"/>
+        <v>1.205</v>
+      </c>
+      <c r="AR7" s="1">
+        <f t="shared" si="14"/>
+        <v>1.21</v>
+      </c>
+      <c r="AS7" s="1">
+        <f t="shared" si="14"/>
+        <v>1.215</v>
+      </c>
+      <c r="AT7" s="1">
+        <f t="shared" si="14"/>
+        <v>1.22</v>
+      </c>
+      <c r="AU7" s="1">
+        <f t="shared" si="14"/>
+        <v>1.225</v>
+      </c>
+      <c r="AV7" s="1">
+        <f t="shared" si="14"/>
+        <v>1.23</v>
+      </c>
+      <c r="AW7" s="1">
+        <f t="shared" si="14"/>
+        <v>1.23499999999999</v>
+      </c>
+      <c r="AX7" s="1">
+        <f t="shared" si="14"/>
+        <v>1.23999999999999</v>
+      </c>
+      <c r="AY7" s="1">
+        <f t="shared" si="14"/>
+        <v>1.24499999999999</v>
+      </c>
+      <c r="AZ7" s="1">
+        <f t="shared" si="14"/>
+        <v>1.24999999999999</v>
+      </c>
+      <c r="BA7" s="1">
+        <f t="shared" si="14"/>
+        <v>1.25499999999999</v>
+      </c>
+      <c r="BB7" s="1">
+        <f t="shared" si="14"/>
+        <v>1.25999999999999</v>
+      </c>
+      <c r="BC7" s="1">
+        <f t="shared" si="14"/>
+        <v>1.26499999999999</v>
+      </c>
+      <c r="BD7" s="1">
+        <f t="shared" si="14"/>
+        <v>1.26999999999999</v>
+      </c>
+      <c r="BE7" s="1">
+        <f t="shared" si="14"/>
+        <v>1.27499999999999</v>
+      </c>
+      <c r="BF7" s="1">
+        <f t="shared" si="14"/>
+        <v>1.27999999999999</v>
+      </c>
+      <c r="BG7" s="1">
+        <f t="shared" si="14"/>
+        <v>1.28499999999999</v>
+      </c>
+      <c r="BH7" s="1">
+        <f t="shared" si="14"/>
+        <v>1.28999999999999</v>
+      </c>
+      <c r="BI7" s="1">
+        <f t="shared" si="14"/>
+        <v>1.29499999999999</v>
+      </c>
+      <c r="BJ7" s="1">
+        <f t="shared" si="14"/>
+        <v>1.29999999999999</v>
+      </c>
+      <c r="BK7" s="1">
+        <f t="shared" si="14"/>
+        <v>1.30499999999999</v>
+      </c>
+      <c r="BL7" s="1">
+        <f t="shared" si="14"/>
+        <v>1.30999999999999</v>
+      </c>
+      <c r="BM7" s="1">
+        <f t="shared" si="14"/>
+        <v>1.31499999999999</v>
+      </c>
+      <c r="BN7" s="1">
+        <f t="shared" si="14"/>
+        <v>1.31999999999999</v>
+      </c>
+      <c r="BO7" s="1">
+        <f t="shared" ref="BO7:CW7" si="15">BN7+0.005</f>
+        <v>1.32499999999999</v>
+      </c>
+      <c r="BP7" s="1">
+        <f t="shared" si="15"/>
+        <v>1.32999999999999</v>
+      </c>
+      <c r="BQ7" s="1">
+        <f t="shared" si="15"/>
+        <v>1.33499999999999</v>
+      </c>
+      <c r="BR7" s="1">
+        <f t="shared" si="15"/>
+        <v>1.33999999999999</v>
+      </c>
+      <c r="BS7" s="1">
+        <f t="shared" si="15"/>
+        <v>1.34499999999999</v>
+      </c>
+      <c r="BT7" s="1">
+        <f t="shared" si="15"/>
+        <v>1.34999999999999</v>
+      </c>
+      <c r="BU7" s="1">
+        <f t="shared" si="15"/>
+        <v>1.35499999999999</v>
+      </c>
+      <c r="BV7" s="1">
+        <f t="shared" si="15"/>
+        <v>1.35999999999999</v>
+      </c>
+      <c r="BW7" s="1">
+        <f t="shared" si="15"/>
+        <v>1.36499999999999</v>
+      </c>
+      <c r="BX7" s="1">
+        <f t="shared" si="15"/>
+        <v>1.36999999999999</v>
+      </c>
+      <c r="BY7" s="1">
+        <f t="shared" si="15"/>
+        <v>1.37499999999999</v>
+      </c>
+      <c r="BZ7" s="1">
+        <f t="shared" si="15"/>
+        <v>1.37999999999999</v>
+      </c>
+      <c r="CA7" s="1">
+        <f t="shared" si="15"/>
+        <v>1.38499999999999</v>
+      </c>
+      <c r="CB7" s="1">
+        <f t="shared" si="15"/>
+        <v>1.38999999999999</v>
+      </c>
+      <c r="CC7" s="1">
+        <f t="shared" si="15"/>
+        <v>1.39499999999999</v>
+      </c>
+      <c r="CD7" s="1">
+        <f t="shared" si="15"/>
+        <v>1.39999999999999</v>
+      </c>
+      <c r="CE7" s="1">
+        <f t="shared" si="15"/>
+        <v>1.40499999999999</v>
+      </c>
+      <c r="CF7" s="1">
+        <f t="shared" si="15"/>
+        <v>1.40999999999999</v>
+      </c>
+      <c r="CG7" s="1">
+        <f t="shared" si="15"/>
+        <v>1.41499999999999</v>
+      </c>
+      <c r="CH7" s="1">
+        <f t="shared" si="15"/>
+        <v>1.41999999999999</v>
+      </c>
+      <c r="CI7" s="1">
+        <f t="shared" si="15"/>
+        <v>1.42499999999999</v>
+      </c>
+      <c r="CJ7" s="1">
+        <f t="shared" si="15"/>
+        <v>1.42999999999999</v>
+      </c>
+      <c r="CK7" s="1">
+        <f t="shared" si="15"/>
+        <v>1.43499999999999</v>
+      </c>
+      <c r="CL7" s="1">
+        <f t="shared" si="15"/>
+        <v>1.43999999999999</v>
+      </c>
+      <c r="CM7" s="1">
+        <f t="shared" si="15"/>
+        <v>1.44499999999999</v>
+      </c>
+      <c r="CN7" s="1">
+        <f t="shared" si="15"/>
+        <v>1.44999999999999</v>
+      </c>
+      <c r="CO7" s="1">
+        <f t="shared" si="15"/>
+        <v>1.45499999999999</v>
+      </c>
+      <c r="CP7" s="1">
+        <f t="shared" si="15"/>
+        <v>1.45999999999999</v>
+      </c>
+      <c r="CQ7" s="1">
+        <f t="shared" si="15"/>
+        <v>1.46499999999999</v>
+      </c>
+      <c r="CR7" s="1">
+        <f t="shared" si="15"/>
+        <v>1.46999999999999</v>
+      </c>
+      <c r="CS7" s="1">
+        <f t="shared" si="15"/>
+        <v>1.47499999999999</v>
+      </c>
+      <c r="CT7" s="1">
+        <f t="shared" si="15"/>
+        <v>1.47999999999999</v>
+      </c>
+      <c r="CU7" s="1">
+        <f t="shared" si="15"/>
+        <v>1.48499999999999</v>
+      </c>
+      <c r="CV7" s="1">
+        <f t="shared" si="15"/>
+        <v>1.48999999999999</v>
+      </c>
+      <c r="CW7" s="1">
+        <f t="shared" si="15"/>
+        <v>1.49499999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:101">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1">
+        <v>5</v>
+      </c>
+      <c r="C8" s="1">
+        <f t="shared" ref="C8:BN8" si="16">B8+0.75</f>
+        <v>5.75</v>
+      </c>
+      <c r="D8" s="1">
+        <f t="shared" si="16"/>
+        <v>6.5</v>
+      </c>
+      <c r="E8" s="1">
+        <f t="shared" si="16"/>
+        <v>7.25</v>
+      </c>
+      <c r="F8" s="1">
+        <f t="shared" si="16"/>
+        <v>8</v>
+      </c>
+      <c r="G8" s="1">
+        <f t="shared" si="16"/>
+        <v>8.75</v>
+      </c>
+      <c r="H8" s="1">
+        <f t="shared" si="16"/>
+        <v>9.5</v>
+      </c>
+      <c r="I8" s="1">
+        <f t="shared" si="16"/>
+        <v>10.25</v>
+      </c>
+      <c r="J8" s="1">
+        <f t="shared" si="16"/>
+        <v>11</v>
+      </c>
+      <c r="K8" s="1">
+        <f t="shared" si="16"/>
+        <v>11.75</v>
+      </c>
+      <c r="L8" s="1">
+        <f t="shared" si="16"/>
+        <v>12.5</v>
+      </c>
+      <c r="M8" s="1">
+        <f t="shared" si="16"/>
+        <v>13.25</v>
+      </c>
+      <c r="N8" s="1">
+        <f t="shared" si="16"/>
+        <v>14</v>
+      </c>
+      <c r="O8" s="1">
+        <f t="shared" si="16"/>
+        <v>14.75</v>
+      </c>
+      <c r="P8" s="1">
+        <f t="shared" si="16"/>
+        <v>15.5</v>
+      </c>
+      <c r="Q8" s="1">
+        <f t="shared" si="16"/>
+        <v>16.25</v>
+      </c>
+      <c r="R8" s="1">
+        <f t="shared" si="16"/>
+        <v>17</v>
+      </c>
+      <c r="S8" s="1">
+        <f t="shared" si="16"/>
+        <v>17.75</v>
+      </c>
+      <c r="T8" s="1">
+        <f t="shared" si="16"/>
+        <v>18.5</v>
+      </c>
+      <c r="U8" s="1">
+        <f t="shared" si="16"/>
+        <v>19.25</v>
+      </c>
+      <c r="V8" s="1">
+        <f t="shared" si="16"/>
+        <v>20</v>
+      </c>
+      <c r="W8" s="1">
+        <f t="shared" si="16"/>
+        <v>20.75</v>
+      </c>
+      <c r="X8" s="1">
+        <f t="shared" si="16"/>
+        <v>21.5</v>
+      </c>
+      <c r="Y8" s="1">
+        <f t="shared" si="16"/>
+        <v>22.25</v>
+      </c>
+      <c r="Z8" s="1">
+        <f t="shared" si="16"/>
+        <v>23</v>
+      </c>
+      <c r="AA8" s="1">
+        <f t="shared" si="16"/>
+        <v>23.75</v>
+      </c>
+      <c r="AB8" s="1">
+        <f t="shared" si="16"/>
+        <v>24.5</v>
+      </c>
+      <c r="AC8" s="1">
+        <f t="shared" si="16"/>
+        <v>25.25</v>
+      </c>
+      <c r="AD8" s="1">
+        <f t="shared" si="16"/>
+        <v>26</v>
+      </c>
+      <c r="AE8" s="1">
+        <f t="shared" si="16"/>
+        <v>26.75</v>
+      </c>
+      <c r="AF8" s="1">
+        <f t="shared" si="16"/>
+        <v>27.5</v>
+      </c>
+      <c r="AG8" s="1">
+        <f t="shared" si="16"/>
+        <v>28.25</v>
+      </c>
+      <c r="AH8" s="1">
+        <f t="shared" si="16"/>
+        <v>29</v>
+      </c>
+      <c r="AI8" s="1">
+        <f t="shared" si="16"/>
+        <v>29.75</v>
+      </c>
+      <c r="AJ8" s="1">
+        <f t="shared" si="16"/>
+        <v>30.5</v>
+      </c>
+      <c r="AK8" s="1">
+        <f t="shared" si="16"/>
+        <v>31.25</v>
+      </c>
+      <c r="AL8" s="1">
+        <f t="shared" si="16"/>
+        <v>32</v>
+      </c>
+      <c r="AM8" s="1">
+        <f t="shared" si="16"/>
+        <v>32.75</v>
+      </c>
+      <c r="AN8" s="1">
+        <f t="shared" si="16"/>
+        <v>33.5</v>
+      </c>
+      <c r="AO8" s="1">
+        <f t="shared" si="16"/>
+        <v>34.25</v>
+      </c>
+      <c r="AP8" s="1">
+        <f t="shared" si="16"/>
+        <v>35</v>
+      </c>
+      <c r="AQ8" s="1">
+        <f t="shared" si="16"/>
+        <v>35.75</v>
+      </c>
+      <c r="AR8" s="1">
+        <f t="shared" si="16"/>
+        <v>36.5</v>
+      </c>
+      <c r="AS8" s="1">
+        <f t="shared" si="16"/>
+        <v>37.25</v>
+      </c>
+      <c r="AT8" s="1">
+        <f t="shared" si="16"/>
+        <v>38</v>
+      </c>
+      <c r="AU8" s="1">
+        <f t="shared" si="16"/>
+        <v>38.75</v>
+      </c>
+      <c r="AV8" s="1">
+        <f t="shared" si="16"/>
+        <v>39.5</v>
+      </c>
+      <c r="AW8" s="1">
+        <f t="shared" si="16"/>
+        <v>40.25</v>
+      </c>
+      <c r="AX8" s="1">
+        <f t="shared" si="16"/>
+        <v>41</v>
+      </c>
+      <c r="AY8" s="1">
+        <f t="shared" si="16"/>
+        <v>41.75</v>
+      </c>
+      <c r="AZ8" s="1">
+        <f t="shared" si="16"/>
+        <v>42.5</v>
+      </c>
+      <c r="BA8" s="1">
+        <f t="shared" si="16"/>
+        <v>43.25</v>
+      </c>
+      <c r="BB8" s="1">
+        <f t="shared" si="16"/>
+        <v>44</v>
+      </c>
+      <c r="BC8" s="1">
+        <f t="shared" si="16"/>
+        <v>44.75</v>
+      </c>
+      <c r="BD8" s="1">
+        <f t="shared" si="16"/>
+        <v>45.5</v>
+      </c>
+      <c r="BE8" s="1">
+        <f t="shared" si="16"/>
+        <v>46.25</v>
+      </c>
+      <c r="BF8" s="1">
+        <f t="shared" si="16"/>
+        <v>47</v>
+      </c>
+      <c r="BG8" s="1">
+        <f t="shared" si="16"/>
+        <v>47.75</v>
+      </c>
+      <c r="BH8" s="1">
+        <f t="shared" si="16"/>
+        <v>48.5</v>
+      </c>
+      <c r="BI8" s="1">
+        <f t="shared" si="16"/>
+        <v>49.25</v>
+      </c>
+      <c r="BJ8" s="1">
+        <f t="shared" si="16"/>
+        <v>50</v>
+      </c>
+      <c r="BK8" s="1">
+        <f t="shared" si="16"/>
+        <v>50.75</v>
+      </c>
+      <c r="BL8" s="1">
+        <f t="shared" si="16"/>
+        <v>51.5</v>
+      </c>
+      <c r="BM8" s="1">
+        <f t="shared" si="16"/>
+        <v>52.25</v>
+      </c>
+      <c r="BN8" s="1">
+        <f t="shared" si="16"/>
+        <v>53</v>
+      </c>
+      <c r="BO8" s="1">
+        <f t="shared" ref="BO8:CW8" si="17">BN8+0.75</f>
+        <v>53.75</v>
+      </c>
+      <c r="BP8" s="1">
+        <f t="shared" si="17"/>
+        <v>54.5</v>
+      </c>
+      <c r="BQ8" s="1">
+        <f t="shared" si="17"/>
+        <v>55.25</v>
+      </c>
+      <c r="BR8" s="1">
+        <f t="shared" si="17"/>
+        <v>56</v>
+      </c>
+      <c r="BS8" s="1">
+        <f t="shared" si="17"/>
+        <v>56.75</v>
+      </c>
+      <c r="BT8" s="1">
+        <f t="shared" si="17"/>
+        <v>57.5</v>
+      </c>
+      <c r="BU8" s="1">
+        <f t="shared" si="17"/>
+        <v>58.25</v>
+      </c>
+      <c r="BV8" s="1">
+        <f t="shared" si="17"/>
+        <v>59</v>
+      </c>
+      <c r="BW8" s="1">
+        <f t="shared" si="17"/>
+        <v>59.75</v>
+      </c>
+      <c r="BX8" s="1">
+        <f t="shared" si="17"/>
+        <v>60.5</v>
+      </c>
+      <c r="BY8" s="1">
+        <f t="shared" si="17"/>
+        <v>61.25</v>
+      </c>
+      <c r="BZ8" s="1">
+        <f t="shared" si="17"/>
+        <v>62</v>
+      </c>
+      <c r="CA8" s="1">
+        <f t="shared" si="17"/>
+        <v>62.75</v>
+      </c>
+      <c r="CB8" s="1">
+        <f t="shared" si="17"/>
+        <v>63.5</v>
+      </c>
+      <c r="CC8" s="1">
+        <f t="shared" si="17"/>
+        <v>64.25</v>
+      </c>
+      <c r="CD8" s="1">
+        <f t="shared" si="17"/>
+        <v>65</v>
+      </c>
+      <c r="CE8" s="1">
+        <f t="shared" si="17"/>
+        <v>65.75</v>
+      </c>
+      <c r="CF8" s="1">
+        <f t="shared" si="17"/>
+        <v>66.5</v>
+      </c>
+      <c r="CG8" s="1">
+        <f t="shared" si="17"/>
+        <v>67.25</v>
+      </c>
+      <c r="CH8" s="1">
+        <f t="shared" si="17"/>
+        <v>68</v>
+      </c>
+      <c r="CI8" s="1">
+        <f t="shared" si="17"/>
+        <v>68.75</v>
+      </c>
+      <c r="CJ8" s="1">
+        <f t="shared" si="17"/>
+        <v>69.5</v>
+      </c>
+      <c r="CK8" s="1">
+        <f t="shared" si="17"/>
+        <v>70.25</v>
+      </c>
+      <c r="CL8" s="1">
+        <f t="shared" si="17"/>
+        <v>71</v>
+      </c>
+      <c r="CM8" s="1">
+        <f t="shared" si="17"/>
+        <v>71.75</v>
+      </c>
+      <c r="CN8" s="1">
+        <f t="shared" si="17"/>
+        <v>72.5</v>
+      </c>
+      <c r="CO8" s="1">
+        <f t="shared" si="17"/>
+        <v>73.25</v>
+      </c>
+      <c r="CP8" s="1">
+        <f t="shared" si="17"/>
+        <v>74</v>
+      </c>
+      <c r="CQ8" s="1">
+        <f t="shared" si="17"/>
+        <v>74.75</v>
+      </c>
+      <c r="CR8" s="1">
+        <f t="shared" si="17"/>
+        <v>75.5</v>
+      </c>
+      <c r="CS8" s="1">
+        <f t="shared" si="17"/>
+        <v>76.25</v>
+      </c>
+      <c r="CT8" s="1">
+        <f t="shared" si="17"/>
+        <v>77</v>
+      </c>
+      <c r="CU8" s="1">
+        <f t="shared" si="17"/>
+        <v>77.75</v>
+      </c>
+      <c r="CV8" s="1">
+        <f t="shared" si="17"/>
+        <v>78.5</v>
+      </c>
+      <c r="CW8" s="1">
+        <f t="shared" si="17"/>
+        <v>79.25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:101">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1">
+        <v>5</v>
+      </c>
+      <c r="C9" s="1">
+        <f t="shared" ref="C9:BN9" si="18">B9+0.45</f>
+        <v>5.45</v>
+      </c>
+      <c r="D9" s="1">
+        <f t="shared" si="18"/>
+        <v>5.9</v>
+      </c>
+      <c r="E9" s="1">
+        <f t="shared" si="18"/>
+        <v>6.35</v>
+      </c>
+      <c r="F9" s="1">
+        <f t="shared" si="18"/>
+        <v>6.8</v>
+      </c>
+      <c r="G9" s="1">
+        <f t="shared" si="18"/>
+        <v>7.25</v>
+      </c>
+      <c r="H9" s="1">
+        <f t="shared" si="18"/>
+        <v>7.7</v>
+      </c>
+      <c r="I9" s="1">
+        <f t="shared" si="18"/>
+        <v>8.15</v>
+      </c>
+      <c r="J9" s="1">
+        <f t="shared" si="18"/>
+        <v>8.6</v>
+      </c>
+      <c r="K9" s="1">
+        <f t="shared" si="18"/>
+        <v>9.05</v>
+      </c>
+      <c r="L9" s="1">
+        <f t="shared" si="18"/>
+        <v>9.5</v>
+      </c>
+      <c r="M9" s="1">
+        <f t="shared" si="18"/>
+        <v>9.95</v>
+      </c>
+      <c r="N9" s="1">
+        <f t="shared" si="18"/>
+        <v>10.4</v>
+      </c>
+      <c r="O9" s="1">
+        <f t="shared" si="18"/>
+        <v>10.85</v>
+      </c>
+      <c r="P9" s="1">
+        <f t="shared" si="18"/>
+        <v>11.3</v>
+      </c>
+      <c r="Q9" s="1">
+        <f t="shared" si="18"/>
+        <v>11.75</v>
+      </c>
+      <c r="R9" s="1">
+        <f t="shared" si="18"/>
+        <v>12.2</v>
+      </c>
+      <c r="S9" s="1">
+        <f t="shared" si="18"/>
+        <v>12.65</v>
+      </c>
+      <c r="T9" s="1">
+        <f t="shared" si="18"/>
+        <v>13.1</v>
+      </c>
+      <c r="U9" s="1">
+        <f t="shared" si="18"/>
+        <v>13.55</v>
+      </c>
+      <c r="V9" s="1">
+        <f t="shared" si="18"/>
+        <v>14</v>
+      </c>
+      <c r="W9" s="1">
+        <f t="shared" si="18"/>
+        <v>14.45</v>
+      </c>
+      <c r="X9" s="1">
+        <f t="shared" si="18"/>
+        <v>14.9</v>
+      </c>
+      <c r="Y9" s="1">
+        <f t="shared" si="18"/>
+        <v>15.35</v>
+      </c>
+      <c r="Z9" s="1">
+        <f t="shared" si="18"/>
+        <v>15.8</v>
+      </c>
+      <c r="AA9" s="1">
+        <f t="shared" si="18"/>
+        <v>16.25</v>
+      </c>
+      <c r="AB9" s="1">
+        <f t="shared" si="18"/>
+        <v>16.7</v>
+      </c>
+      <c r="AC9" s="1">
+        <f t="shared" si="18"/>
+        <v>17.15</v>
+      </c>
+      <c r="AD9" s="1">
+        <f t="shared" si="18"/>
+        <v>17.6</v>
+      </c>
+      <c r="AE9" s="1">
+        <f t="shared" si="18"/>
+        <v>18.05</v>
+      </c>
+      <c r="AF9" s="1">
+        <f t="shared" si="18"/>
+        <v>18.5</v>
+      </c>
+      <c r="AG9" s="1">
+        <f t="shared" si="18"/>
+        <v>18.95</v>
+      </c>
+      <c r="AH9" s="1">
+        <f t="shared" si="18"/>
+        <v>19.4</v>
+      </c>
+      <c r="AI9" s="1">
+        <f t="shared" si="18"/>
+        <v>19.85</v>
+      </c>
+      <c r="AJ9" s="1">
+        <f t="shared" si="18"/>
+        <v>20.3</v>
+      </c>
+      <c r="AK9" s="1">
+        <f t="shared" si="18"/>
+        <v>20.75</v>
+      </c>
+      <c r="AL9" s="1">
+        <f t="shared" si="18"/>
+        <v>21.2</v>
+      </c>
+      <c r="AM9" s="1">
+        <f t="shared" si="18"/>
+        <v>21.65</v>
+      </c>
+      <c r="AN9" s="1">
+        <f t="shared" si="18"/>
+        <v>22.1</v>
+      </c>
+      <c r="AO9" s="1">
+        <f t="shared" si="18"/>
+        <v>22.55</v>
+      </c>
+      <c r="AP9" s="1">
+        <f t="shared" si="18"/>
+        <v>23</v>
+      </c>
+      <c r="AQ9" s="1">
+        <f t="shared" si="18"/>
+        <v>23.45</v>
+      </c>
+      <c r="AR9" s="1">
+        <f t="shared" si="18"/>
+        <v>23.9</v>
+      </c>
+      <c r="AS9" s="1">
+        <f t="shared" si="18"/>
+        <v>24.35</v>
+      </c>
+      <c r="AT9" s="1">
+        <f t="shared" si="18"/>
+        <v>24.8</v>
+      </c>
+      <c r="AU9" s="1">
+        <f t="shared" si="18"/>
+        <v>25.25</v>
+      </c>
+      <c r="AV9" s="1">
+        <f t="shared" si="18"/>
+        <v>25.7</v>
+      </c>
+      <c r="AW9" s="1">
+        <f t="shared" si="18"/>
+        <v>26.15</v>
+      </c>
+      <c r="AX9" s="1">
+        <f t="shared" si="18"/>
+        <v>26.6</v>
+      </c>
+      <c r="AY9" s="1">
+        <f t="shared" si="18"/>
+        <v>27.05</v>
+      </c>
+      <c r="AZ9" s="1">
+        <f t="shared" si="18"/>
+        <v>27.5</v>
+      </c>
+      <c r="BA9" s="1">
+        <f t="shared" si="18"/>
+        <v>27.95</v>
+      </c>
+      <c r="BB9" s="1">
+        <f t="shared" si="18"/>
+        <v>28.4</v>
+      </c>
+      <c r="BC9" s="1">
+        <f t="shared" si="18"/>
+        <v>28.85</v>
+      </c>
+      <c r="BD9" s="1">
+        <f t="shared" si="18"/>
+        <v>29.3</v>
+      </c>
+      <c r="BE9" s="1">
+        <f t="shared" si="18"/>
+        <v>29.75</v>
+      </c>
+      <c r="BF9" s="1">
+        <f t="shared" si="18"/>
+        <v>30.2</v>
+      </c>
+      <c r="BG9" s="1">
+        <f t="shared" si="18"/>
+        <v>30.65</v>
+      </c>
+      <c r="BH9" s="1">
+        <f t="shared" si="18"/>
+        <v>31.1</v>
+      </c>
+      <c r="BI9" s="1">
+        <f t="shared" si="18"/>
+        <v>31.55</v>
+      </c>
+      <c r="BJ9" s="1">
+        <f t="shared" si="18"/>
+        <v>32</v>
+      </c>
+      <c r="BK9" s="1">
+        <f t="shared" si="18"/>
+        <v>32.45</v>
+      </c>
+      <c r="BL9" s="1">
+        <f t="shared" si="18"/>
+        <v>32.9</v>
+      </c>
+      <c r="BM9" s="1">
+        <f t="shared" si="18"/>
+        <v>33.35</v>
+      </c>
+      <c r="BN9" s="1">
+        <f t="shared" si="18"/>
+        <v>33.8</v>
+      </c>
+      <c r="BO9" s="1">
+        <f t="shared" ref="BO9:CW9" si="19">BN9+0.45</f>
+        <v>34.25</v>
+      </c>
+      <c r="BP9" s="1">
+        <f t="shared" si="19"/>
+        <v>34.7</v>
+      </c>
+      <c r="BQ9" s="1">
+        <f t="shared" si="19"/>
+        <v>35.15</v>
+      </c>
+      <c r="BR9" s="1">
+        <f t="shared" si="19"/>
+        <v>35.6</v>
+      </c>
+      <c r="BS9" s="1">
+        <f t="shared" si="19"/>
+        <v>36.05</v>
+      </c>
+      <c r="BT9" s="1">
+        <f t="shared" si="19"/>
+        <v>36.5</v>
+      </c>
+      <c r="BU9" s="1">
+        <f t="shared" si="19"/>
+        <v>36.95</v>
+      </c>
+      <c r="BV9" s="1">
+        <f t="shared" si="19"/>
+        <v>37.4</v>
+      </c>
+      <c r="BW9" s="1">
+        <f t="shared" si="19"/>
+        <v>37.85</v>
+      </c>
+      <c r="BX9" s="1">
+        <f t="shared" si="19"/>
+        <v>38.3</v>
+      </c>
+      <c r="BY9" s="1">
+        <f t="shared" si="19"/>
+        <v>38.75</v>
+      </c>
+      <c r="BZ9" s="1">
+        <f t="shared" si="19"/>
+        <v>39.2</v>
+      </c>
+      <c r="CA9" s="1">
+        <f t="shared" si="19"/>
+        <v>39.65</v>
+      </c>
+      <c r="CB9" s="1">
+        <f t="shared" si="19"/>
+        <v>40.1</v>
+      </c>
+      <c r="CC9" s="1">
+        <f t="shared" si="19"/>
+        <v>40.55</v>
+      </c>
+      <c r="CD9" s="1">
+        <f t="shared" si="19"/>
+        <v>41</v>
+      </c>
+      <c r="CE9" s="1">
+        <f t="shared" si="19"/>
+        <v>41.45</v>
+      </c>
+      <c r="CF9" s="1">
+        <f t="shared" si="19"/>
+        <v>41.9</v>
+      </c>
+      <c r="CG9" s="1">
+        <f t="shared" si="19"/>
+        <v>42.35</v>
+      </c>
+      <c r="CH9" s="1">
+        <f t="shared" si="19"/>
+        <v>42.8</v>
+      </c>
+      <c r="CI9" s="1">
+        <f t="shared" si="19"/>
+        <v>43.25</v>
+      </c>
+      <c r="CJ9" s="1">
+        <f t="shared" si="19"/>
+        <v>43.7</v>
+      </c>
+      <c r="CK9" s="1">
+        <f t="shared" si="19"/>
+        <v>44.15</v>
+      </c>
+      <c r="CL9" s="1">
+        <f t="shared" si="19"/>
+        <v>44.6</v>
+      </c>
+      <c r="CM9" s="1">
+        <f t="shared" si="19"/>
+        <v>45.05</v>
+      </c>
+      <c r="CN9" s="1">
+        <f t="shared" si="19"/>
+        <v>45.5</v>
+      </c>
+      <c r="CO9" s="1">
+        <f t="shared" si="19"/>
+        <v>45.9500000000001</v>
+      </c>
+      <c r="CP9" s="1">
+        <f t="shared" si="19"/>
+        <v>46.4000000000001</v>
+      </c>
+      <c r="CQ9" s="1">
+        <f t="shared" si="19"/>
+        <v>46.8500000000001</v>
+      </c>
+      <c r="CR9" s="1">
+        <f t="shared" si="19"/>
+        <v>47.3000000000001</v>
+      </c>
+      <c r="CS9" s="1">
+        <f t="shared" si="19"/>
+        <v>47.7500000000001</v>
+      </c>
+      <c r="CT9" s="1">
+        <f t="shared" si="19"/>
+        <v>48.2000000000001</v>
+      </c>
+      <c r="CU9" s="1">
+        <f t="shared" si="19"/>
+        <v>48.6500000000001</v>
+      </c>
+      <c r="CV9" s="1">
+        <f t="shared" si="19"/>
+        <v>49.1000000000001</v>
+      </c>
+      <c r="CW9" s="1">
+        <f t="shared" si="19"/>
+        <v>49.5500000000001</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>